--- a/Budget & Mortgage Calc Rev C.xlsx
+++ b/Budget & Mortgage Calc Rev C.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\Budget\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Derek.Mardian\workspace\budget-mortgage-calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7760"/>
   </bookViews>
   <sheets>
     <sheet name="Data Input" sheetId="7" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Student Loans" sheetId="9" r:id="rId7"/>
     <sheet name="Credit Card Debt" sheetId="10" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="168">
   <si>
     <t>Month</t>
   </si>
@@ -533,11 +533,14 @@
   <si>
     <t>If no loans, only change loan amount to "0"</t>
   </si>
+  <si>
+    <t>Utilities See Derek Changed this</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="8">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-409]mmm\-yy;@"/>
@@ -1084,42 +1087,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1180,6 +1147,42 @@
     <xf numFmtId="169" fontId="0" fillId="0" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Currency" xfId="3" builtinId="4"/>
@@ -1189,56 +1192,6 @@
     <cellStyle name="TableStyleLight1" xfId="1"/>
   </cellStyles>
   <dxfs count="70">
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0;[Red]&quot;$&quot;#,##0"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0;[Red]&quot;$&quot;#,##0"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1471,6 +1424,44 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0;[Red]&quot;$&quot;#,##0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0;[Red]&quot;$&quot;#,##0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1527,6 +1518,9 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1546,6 +1540,9 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1587,7 +1584,13 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1676,118 +1679,118 @@
     <tableColumn id="7" name="Column7" headerRowDxfId="56" dataDxfId="55">
       <calculatedColumnFormula>Table1[[#This Row],[Column2]]+Table1[[#This Row],[Column4]]+Table1[[#This Row],[Column5]]-Table1[[#This Row],[Column3]]-Table1[[#This Row],[Column8]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="Column23" headerRowDxfId="54" dataDxfId="4">
+    <tableColumn id="24" name="Column23" headerRowDxfId="54" dataDxfId="53">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Column1]]&lt;'Data Input'!$C$3,MAX('Tax Information'!$C$15+'Data Input'!C27*'Tax Information'!$C$5,Spending!P3+'Student Loans'!B6),MAX('Tax Information'!$C$15+'Data Input'!C27*'Tax Information'!$C$5,'Mortgage Sheet'!C6+Spending!P3+'Student Loans'!C6))+'Tax Information'!$C$13*('Data Input'!C27+2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Column8" headerRowDxfId="53" dataDxfId="3">
+    <tableColumn id="8" name="Column8" headerRowDxfId="52" dataDxfId="51">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Column1]]&lt;'Data Input'!$C$3,MAX('Tax Information'!$C$6+'Data Input'!C27*'Tax Information'!$C$5,Table1[[#This Row],[Column9]]+Spending!P3+'Student Loans'!C6),MAX('Tax Information'!$C$6+'Data Input'!C27*'Tax Information'!$C$5,'Mortgage Sheet'!C6+Table1[[#This Row],[Column9]]+Spending!P3+'Student Loans'!C6))+'Tax Information'!$C$4*('Data Input'!C27+2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Column9" headerRowDxfId="52" dataDxfId="51">
+    <tableColumn id="9" name="Column9" headerRowDxfId="50" dataDxfId="49">
       <calculatedColumnFormula>'Tax Information'!E25</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Column10" headerRowDxfId="50" dataDxfId="49">
+    <tableColumn id="10" name="Column10" headerRowDxfId="48" dataDxfId="47">
       <calculatedColumnFormula>'Tax Information'!C25</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Column11" headerRowDxfId="48" dataDxfId="47">
+    <tableColumn id="11" name="Column11" headerRowDxfId="46" dataDxfId="45">
       <calculatedColumnFormula>(0.01+0.0765)*(Table1[[#This Row],[Column2]]+Table1[[#This Row],[Column4]]+Table1[[#This Row],[Column5]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Column12" headerRowDxfId="46" dataDxfId="45">
+    <tableColumn id="12" name="Column12" headerRowDxfId="44" dataDxfId="43">
       <calculatedColumnFormula>(Table1[[#This Row],[Column2]]+Table1[[#This Row],[Column4]]+Table1[[#This Row],[Column5]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Column13" headerRowDxfId="44" dataDxfId="43">
+    <tableColumn id="13" name="Column13" headerRowDxfId="42" dataDxfId="41">
       <calculatedColumnFormula>(Table1[[#This Row],[Column2]]+Table1[[#This Row],[Column4]]+Table1[[#This Row],[Column5]])-(Table1[[#This Row],[Column3]]+Table1[[#This Row],[Column9]]+Table1[[#This Row],[Column10]]+Table1[[#This Row],[Column11]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="Column14" headerRowDxfId="42" dataDxfId="41">
+    <tableColumn id="14" name="Column14" headerRowDxfId="40" dataDxfId="39">
       <calculatedColumnFormula>1-(Table1[[#This Row],[Column13]]/Table1[[#This Row],[Column12]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Column15" headerRowDxfId="40" dataDxfId="1">
+    <tableColumn id="15" name="Column15" headerRowDxfId="38" dataDxfId="37">
       <calculatedColumnFormula>Table1[[#This Row],[Column3]]+MIN(5500,Table1[[#This Row],[Column2]]*'Data Input'!$C$14+Table1[[#This Row],[Column5]]*'Data Input'!$F$14+'Data Input'!$C$13+'Data Input'!$F$13)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="Column16" headerRowDxfId="39" dataDxfId="38">
+    <tableColumn id="17" name="Column16" headerRowDxfId="36" dataDxfId="35">
       <calculatedColumnFormula>Table1[[#This Row],[Column12]]/12</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="Column17" headerRowDxfId="37" dataDxfId="36">
+    <tableColumn id="16" name="Column17" headerRowDxfId="34" dataDxfId="33">
       <calculatedColumnFormula>Table1[[#This Row],[Column13]]/12</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="Column18" headerRowDxfId="35" dataDxfId="34">
+    <tableColumn id="19" name="Column18" headerRowDxfId="32" dataDxfId="31">
       <calculatedColumnFormula>Table1[[#This Row],[Column13]]/'Data Input'!$C$4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="Column19" headerRowDxfId="33" dataDxfId="0">
+    <tableColumn id="18" name="Column19" headerRowDxfId="30" dataDxfId="29">
       <calculatedColumnFormula>Table1[[#This Row],[Column17]]-IF(Table1[[#This Row],[Column1]]&lt;'Data Input'!$C$3,'Data Input'!$R$8*(1+'Data Input'!$R$9)^(Table1[[#This Row],[Column1]]-'Data Input'!$C$2),IF('Data Input'!$C$3+'Data Input'!$I$11&gt;Table1[[#This Row],[Column1]],'Mortgage Sheet'!B6/12,'Mortgage Sheet'!$K$2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="Column20" headerRowDxfId="32" dataDxfId="31">
+    <tableColumn id="22" name="Column20" headerRowDxfId="28" dataDxfId="27">
       <calculatedColumnFormula>Spending!T3+12*(Table1[[#This Row],[Column17]]-Table1[[#This Row],[Column19]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Column21" headerRowDxfId="30" dataDxfId="29">
+    <tableColumn id="20" name="Column21" headerRowDxfId="26" dataDxfId="25">
       <calculatedColumnFormula>Table1[[#This Row],[Column19]]-3000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="Column22" headerRowDxfId="28" dataDxfId="27"/>
+    <tableColumn id="21" name="Column22" headerRowDxfId="24" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="A2:U42" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="A2:U42" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="A2:U42"/>
   <tableColumns count="21">
-    <tableColumn id="1" name="year" dataDxfId="24"/>
-    <tableColumn id="2" name="Utilities" dataDxfId="23">
+    <tableColumn id="1" name="year" dataDxfId="20"/>
+    <tableColumn id="2" name="Utilities" dataDxfId="19">
       <calculatedColumnFormula>12*'Data Input'!$E$5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Car Insurance &amp; Reg" dataDxfId="22">
+    <tableColumn id="3" name="Car Insurance &amp; Reg" dataDxfId="18">
       <calculatedColumnFormula>12*'Data Input'!$F$5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Debt Payments" dataDxfId="5">
+    <tableColumn id="15" name="Debt Payments" dataDxfId="17">
       <calculatedColumnFormula>ROUNDDOWN('Student Loans'!B6+'Credit Card Debt'!B6,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="Post-Tax Savings (IRA)" dataDxfId="2"/>
-    <tableColumn id="4" name="Car Repairs &amp; Car Payment" dataDxfId="21">
+    <tableColumn id="21" name="Post-Tax Savings (IRA)" dataDxfId="16"/>
+    <tableColumn id="4" name="Car Repairs &amp; Car Payment" dataDxfId="15">
       <calculatedColumnFormula>('Data Input'!F27+100)*12</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Cell Phones" dataDxfId="20">
+    <tableColumn id="5" name="Cell Phones" dataDxfId="14">
       <calculatedColumnFormula>12*'Data Input'!$J$5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Internet" dataDxfId="19">
+    <tableColumn id="6" name="Internet" dataDxfId="13">
       <calculatedColumnFormula>12*'Data Input'!$K$5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Petrol" dataDxfId="18">
+    <tableColumn id="7" name="Petrol" dataDxfId="12">
       <calculatedColumnFormula>12*'Data Input'!$L$5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Groceries" dataDxfId="17">
+    <tableColumn id="8" name="Groceries" dataDxfId="11">
       <calculatedColumnFormula>12*'Data Input'!$M$5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Meals Out" dataDxfId="16">
+    <tableColumn id="9" name="Meals Out" dataDxfId="10">
       <calculatedColumnFormula>12*'Data Input'!$N$5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="House Supplies" dataDxfId="15">
+    <tableColumn id="10" name="House Supplies" dataDxfId="9">
       <calculatedColumnFormula>12*'Data Input'!$O$5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Vacation" dataDxfId="14">
+    <tableColumn id="11" name="Vacation" dataDxfId="8">
       <calculatedColumnFormula>12*'Data Input'!$P$5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Pocket Money" dataDxfId="13">
+    <tableColumn id="12" name="Pocket Money" dataDxfId="7">
       <calculatedColumnFormula>12*'Data Input'!$Q$5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="Clothing" dataDxfId="12">
+    <tableColumn id="14" name="Clothing" dataDxfId="6">
       <calculatedColumnFormula>12*'Data Input'!$R$5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Charity" dataDxfId="11">
+    <tableColumn id="13" name="Charity" dataDxfId="5">
       <calculatedColumnFormula>12*'Data Input'!$S$5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="Entertainment" dataDxfId="10">
+    <tableColumn id="16" name="Entertainment" dataDxfId="4">
       <calculatedColumnFormula>12*'Data Input'!$T$5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="Gifts" dataDxfId="9">
+    <tableColumn id="17" name="Gifts" dataDxfId="3">
       <calculatedColumnFormula>12*'Data Input'!$U$5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="Misc. Housing costs" dataDxfId="8">
+    <tableColumn id="18" name="Misc. Housing costs" dataDxfId="2">
       <calculatedColumnFormula>12*'Data Input'!$V$5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="Total" dataDxfId="7">
+    <tableColumn id="19" name="Total" dataDxfId="1">
       <calculatedColumnFormula>SUM(Table12[[#This Row],[Utilities]:[Misc. Housing costs]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Monthly Total" dataDxfId="6">
+    <tableColumn id="20" name="Monthly Total" dataDxfId="0">
       <calculatedColumnFormula>Table12[[#This Row],[Total]]/12</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1871,6 +1874,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1906,6 +1926,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2061,93 +2098,93 @@
   <dimension ref="B1:V56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="20.28515625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" style="16" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="16" customWidth="1"/>
-    <col min="8" max="8" width="23.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.26953125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" customWidth="1"/>
+    <col min="4" max="4" width="7.7265625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" customWidth="1"/>
+    <col min="6" max="6" width="13.7265625" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="23.81640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.453125" customWidth="1"/>
+    <col min="11" max="11" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.28515625" customWidth="1"/>
-    <col min="17" max="17" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.26953125" customWidth="1"/>
+    <col min="17" max="17" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13" style="16" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.7109375" customWidth="1"/>
-    <col min="22" max="22" width="7.85546875" customWidth="1"/>
+    <col min="21" max="21" width="6.7265625" customWidth="1"/>
+    <col min="22" max="22" width="7.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" s="8" customFormat="1" ht="15.75" thickBot="1">
+    <row r="1" spans="2:22" s="8" customFormat="1" ht="15" thickBot="1">
       <c r="T1" s="32"/>
     </row>
-    <row r="2" spans="2:22" s="16" customFormat="1" ht="15.75" thickBot="1">
+    <row r="2" spans="2:22" s="16" customFormat="1" ht="15" thickBot="1">
       <c r="B2" s="66" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="67">
         <v>2016</v>
       </c>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="125"/>
-      <c r="M2" s="125"/>
-      <c r="N2" s="125"/>
-      <c r="O2" s="125"/>
-      <c r="P2" s="125"/>
-      <c r="Q2" s="125"/>
-      <c r="R2" s="125"/>
-      <c r="S2" s="125"/>
-      <c r="T2" s="125"/>
-      <c r="U2" s="125"/>
-      <c r="V2" s="125"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113"/>
+      <c r="O2" s="113"/>
+      <c r="P2" s="113"/>
+      <c r="Q2" s="113"/>
+      <c r="R2" s="113"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="113"/>
+      <c r="U2" s="113"/>
+      <c r="V2" s="113"/>
     </row>
     <row r="3" spans="2:22" s="16" customFormat="1">
-      <c r="B3" s="121" t="s">
+      <c r="B3" s="109" t="s">
         <v>152</v>
       </c>
-      <c r="C3" s="122">
+      <c r="C3" s="110">
         <v>2018</v>
       </c>
-      <c r="E3" s="98" t="str">
+      <c r="E3" s="125" t="str">
         <f>CONCATENATE("Monthly Costs for ",C2)</f>
         <v>Monthly Costs for 2016</v>
       </c>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
-      <c r="N3" s="99"/>
-      <c r="O3" s="99"/>
-      <c r="P3" s="99"/>
-      <c r="Q3" s="99"/>
-      <c r="R3" s="99"/>
-      <c r="S3" s="99"/>
-      <c r="T3" s="99"/>
-      <c r="U3" s="99"/>
-      <c r="V3" s="100"/>
-    </row>
-    <row r="4" spans="2:22" s="16" customFormat="1" ht="45">
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="126"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="126"/>
+      <c r="Q3" s="126"/>
+      <c r="R3" s="126"/>
+      <c r="S3" s="126"/>
+      <c r="T3" s="126"/>
+      <c r="U3" s="126"/>
+      <c r="V3" s="127"/>
+    </row>
+    <row r="4" spans="2:22" s="16" customFormat="1" ht="43.5">
       <c r="B4" s="51" t="s">
         <v>109</v>
       </c>
@@ -2155,7 +2192,7 @@
         <v>24</v>
       </c>
       <c r="E4" s="69" t="s">
-        <v>32</v>
+        <v>167</v>
       </c>
       <c r="F4" s="43" t="s">
         <v>33</v>
@@ -2209,7 +2246,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="2:22" s="16" customFormat="1" ht="30.75" thickBot="1">
+    <row r="5" spans="2:22" s="16" customFormat="1" ht="29.5" thickBot="1">
       <c r="B5" s="49" t="str">
         <f>CONCATENATE("Savings @ Start of ", C2)</f>
         <v>Savings @ Start of 2016</v>
@@ -2223,11 +2260,11 @@
       <c r="F5" s="72">
         <v>250</v>
       </c>
-      <c r="G5" s="120">
+      <c r="G5" s="108">
         <f>L11+O11</f>
         <v>0</v>
       </c>
-      <c r="H5" s="120">
+      <c r="H5" s="108">
         <f>MIN(5500,C14*C10+F10*F14+C13+F13)/12</f>
         <v>0</v>
       </c>
@@ -2276,7 +2313,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="2:22" s="16" customFormat="1" ht="15.75" thickBot="1">
+    <row r="6" spans="2:22" s="16" customFormat="1" ht="15" thickBot="1">
       <c r="B6" s="33"/>
       <c r="E6" s="46"/>
       <c r="F6" s="46"/>
@@ -2298,48 +2335,48 @@
       <c r="V6" s="46"/>
     </row>
     <row r="7" spans="2:22" s="16" customFormat="1">
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="120" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="128" t="s">
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="116" t="s">
         <v>121</v>
       </c>
-      <c r="I7" s="129"/>
+      <c r="I7" s="117"/>
       <c r="J7" s="46"/>
-      <c r="K7" s="128" t="s">
+      <c r="K7" s="116" t="s">
         <v>150</v>
       </c>
-      <c r="L7" s="129"/>
-      <c r="M7" s="130" t="s">
+      <c r="L7" s="117"/>
+      <c r="M7" s="118" t="s">
         <v>166</v>
       </c>
-      <c r="N7" s="128" t="s">
+      <c r="N7" s="116" t="s">
         <v>154</v>
       </c>
-      <c r="O7" s="129"/>
+      <c r="O7" s="117"/>
       <c r="P7" s="46"/>
-      <c r="Q7" s="102" t="s">
+      <c r="Q7" s="128" t="s">
         <v>159</v>
       </c>
-      <c r="R7" s="103"/>
+      <c r="R7" s="129"/>
     </row>
     <row r="8" spans="2:22">
-      <c r="B8" s="104" t="str">
+      <c r="B8" s="123" t="str">
         <f>C9</f>
         <v>Johnny</v>
       </c>
-      <c r="C8" s="95"/>
+      <c r="C8" s="119"/>
       <c r="D8" s="27"/>
-      <c r="E8" s="95" t="str">
+      <c r="E8" s="119" t="str">
         <f>F9</f>
         <v>Ellis</v>
       </c>
-      <c r="F8" s="105"/>
+      <c r="F8" s="124"/>
       <c r="G8" s="33"/>
       <c r="H8" s="75" t="s">
         <v>5</v>
@@ -2354,7 +2391,7 @@
       <c r="L8" s="76">
         <v>0</v>
       </c>
-      <c r="M8" s="130"/>
+      <c r="M8" s="118"/>
       <c r="N8" s="75" t="s">
         <v>155</v>
       </c>
@@ -2384,7 +2421,7 @@
       <c r="F9" s="58" t="s">
         <v>129</v>
       </c>
-      <c r="G9" s="114"/>
+      <c r="G9" s="102"/>
       <c r="H9" s="77" t="s">
         <v>6</v>
       </c>
@@ -2398,7 +2435,7 @@
       <c r="L9" s="78">
         <v>0.04</v>
       </c>
-      <c r="M9" s="130"/>
+      <c r="M9" s="118"/>
       <c r="N9" s="77" t="s">
         <v>6</v>
       </c>
@@ -2428,7 +2465,7 @@
       <c r="F10" s="59">
         <v>0</v>
       </c>
-      <c r="G10" s="115"/>
+      <c r="G10" s="103"/>
       <c r="H10" s="77" t="s">
         <v>122</v>
       </c>
@@ -2442,7 +2479,7 @@
       <c r="L10" s="79">
         <v>3</v>
       </c>
-      <c r="M10" s="130"/>
+      <c r="M10" s="118"/>
       <c r="N10" s="77" t="s">
         <v>151</v>
       </c>
@@ -2452,7 +2489,7 @@
       <c r="P10" s="16"/>
       <c r="Q10" s="16"/>
     </row>
-    <row r="11" spans="2:22" ht="30.75" thickBot="1">
+    <row r="11" spans="2:22" ht="29.5" thickBot="1">
       <c r="B11" s="51" t="s">
         <v>161</v>
       </c>
@@ -2465,7 +2502,7 @@
         <v>Pre-Tax Savings ($)</v>
       </c>
       <c r="F11" s="59"/>
-      <c r="G11" s="115"/>
+      <c r="G11" s="103"/>
       <c r="H11" s="69" t="s">
         <v>125</v>
       </c>
@@ -2480,7 +2517,7 @@
         <f>'Student Loans'!K3</f>
         <v>0</v>
       </c>
-      <c r="M11" s="130"/>
+      <c r="M11" s="118"/>
       <c r="N11" s="81" t="s">
         <v>123</v>
       </c>
@@ -2491,7 +2528,7 @@
       <c r="P11" s="16"/>
       <c r="Q11" s="16"/>
     </row>
-    <row r="12" spans="2:22" s="16" customFormat="1" ht="30">
+    <row r="12" spans="2:22" s="16" customFormat="1" ht="29">
       <c r="B12" s="51" t="s">
         <v>162</v>
       </c>
@@ -2504,17 +2541,17 @@
         <v>Pre-Tax Savings (% of income)</v>
       </c>
       <c r="F12" s="60"/>
-      <c r="G12" s="116"/>
+      <c r="G12" s="104"/>
       <c r="H12" s="69" t="s">
         <v>126</v>
       </c>
       <c r="I12" s="76">
         <v>6000</v>
       </c>
-      <c r="K12" s="126"/>
-      <c r="L12" s="127"/>
-    </row>
-    <row r="13" spans="2:22" s="16" customFormat="1" ht="30">
+      <c r="K12" s="114"/>
+      <c r="L12" s="115"/>
+    </row>
+    <row r="13" spans="2:22" s="16" customFormat="1" ht="29">
       <c r="B13" s="51" t="s">
         <v>164</v>
       </c>
@@ -2527,17 +2564,17 @@
         <v>Post-Tax Savings, IRA ($)</v>
       </c>
       <c r="F13" s="55"/>
-      <c r="G13" s="116"/>
+      <c r="G13" s="104"/>
       <c r="H13" s="69" t="s">
         <v>127</v>
       </c>
       <c r="I13" s="76">
         <v>1200</v>
       </c>
-      <c r="K13" s="126"/>
-      <c r="L13" s="127"/>
-    </row>
-    <row r="14" spans="2:22" s="16" customFormat="1" ht="45.75" thickBot="1">
+      <c r="K13" s="114"/>
+      <c r="L13" s="115"/>
+    </row>
+    <row r="14" spans="2:22" s="16" customFormat="1" ht="29.5" thickBot="1">
       <c r="B14" s="51" t="s">
         <v>165</v>
       </c>
@@ -2548,7 +2585,7 @@
         <v>Post-Tax Savings, IRA (% of income)</v>
       </c>
       <c r="F14" s="56"/>
-      <c r="G14" s="116"/>
+      <c r="G14" s="104"/>
       <c r="H14" s="81" t="s">
         <v>123</v>
       </c>
@@ -2556,8 +2593,8 @@
         <f>'Mortgage Sheet'!K3</f>
         <v>2509.6611818618112</v>
       </c>
-      <c r="K14" s="126"/>
-      <c r="L14" s="127"/>
+      <c r="K14" s="114"/>
+      <c r="L14" s="115"/>
     </row>
     <row r="15" spans="2:22">
       <c r="B15" s="51" t="s">
@@ -2572,7 +2609,7 @@
         <v>Bonuses ($)</v>
       </c>
       <c r="F15" s="59"/>
-      <c r="G15" s="115"/>
+      <c r="G15" s="103"/>
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
       <c r="K15" s="16"/>
@@ -2583,7 +2620,7 @@
       <c r="P15" s="16"/>
       <c r="Q15" s="16"/>
     </row>
-    <row r="16" spans="2:22" s="16" customFormat="1" ht="30">
+    <row r="16" spans="2:22" s="16" customFormat="1" ht="29">
       <c r="B16" s="51" t="s">
         <v>57</v>
       </c>
@@ -2594,7 +2631,7 @@
         <v>Bonuses (% of income)</v>
       </c>
       <c r="F16" s="60"/>
-      <c r="G16" s="116"/>
+      <c r="G16" s="104"/>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
     </row>
@@ -2613,11 +2650,11 @@
       <c r="F17" s="60">
         <v>0.04</v>
       </c>
-      <c r="G17" s="116"/>
+      <c r="G17" s="104"/>
       <c r="K17" s="16"/>
       <c r="L17" s="16"/>
     </row>
-    <row r="18" spans="2:17" ht="30.75" thickBot="1">
+    <row r="18" spans="2:17" ht="15" thickBot="1">
       <c r="B18" s="52" t="str">
         <f>CONCATENATE("Years ",C9, " will work")</f>
         <v>Years Johnny will work</v>
@@ -2633,7 +2670,7 @@
       <c r="F18" s="61">
         <v>3</v>
       </c>
-      <c r="G18" s="114"/>
+      <c r="G18" s="102"/>
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
       <c r="K18" s="16"/>
@@ -2644,8 +2681,8 @@
       <c r="P18" s="16"/>
       <c r="Q18" s="16"/>
     </row>
-    <row r="19" spans="2:17" ht="15.75" thickBot="1">
-      <c r="G19" s="117"/>
+    <row r="19" spans="2:17" ht="15" thickBot="1">
+      <c r="G19" s="105"/>
       <c r="I19" s="16"/>
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
@@ -2657,15 +2694,15 @@
       <c r="Q19" s="16"/>
     </row>
     <row r="20" spans="2:17">
-      <c r="B20" s="96" t="s">
+      <c r="B20" s="120" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="97"/>
-      <c r="E20" s="96" t="s">
+      <c r="C20" s="121"/>
+      <c r="E20" s="120" t="s">
         <v>110</v>
       </c>
-      <c r="F20" s="97"/>
-      <c r="G20" s="118"/>
+      <c r="F20" s="121"/>
+      <c r="G20" s="106"/>
       <c r="H20" s="93" t="s">
         <v>48</v>
       </c>
@@ -2692,7 +2729,7 @@
       <c r="F21" s="59">
         <v>300</v>
       </c>
-      <c r="G21" s="115"/>
+      <c r="G21" s="103"/>
       <c r="H21" s="83" t="s">
         <v>118</v>
       </c>
@@ -2708,7 +2745,7 @@
       <c r="P21" s="16"/>
       <c r="Q21" s="16"/>
     </row>
-    <row r="22" spans="2:17" ht="30">
+    <row r="22" spans="2:17" ht="29">
       <c r="B22" s="51" t="s">
         <v>59</v>
       </c>
@@ -2721,7 +2758,7 @@
       <c r="F22" s="80">
         <v>2020</v>
       </c>
-      <c r="G22" s="119"/>
+      <c r="G22" s="107"/>
       <c r="H22" s="83" t="s">
         <v>116</v>
       </c>
@@ -2748,7 +2785,7 @@
       <c r="F23" s="80">
         <v>250</v>
       </c>
-      <c r="G23" s="119"/>
+      <c r="G23" s="107"/>
       <c r="H23" s="83" t="s">
         <v>117</v>
       </c>
@@ -2764,7 +2801,7 @@
       <c r="P23" s="16"/>
       <c r="Q23" s="16"/>
     </row>
-    <row r="24" spans="2:17" ht="30.75" thickBot="1">
+    <row r="24" spans="2:17" ht="29.5" thickBot="1">
       <c r="B24" s="52" t="s">
         <v>62</v>
       </c>
@@ -2775,7 +2812,7 @@
       <c r="F24" s="82">
         <v>2022</v>
       </c>
-      <c r="G24" s="119"/>
+      <c r="G24" s="107"/>
       <c r="H24" s="83" t="s">
         <v>119</v>
       </c>
@@ -2792,8 +2829,8 @@
       <c r="P24" s="16"/>
       <c r="Q24" s="16"/>
     </row>
-    <row r="25" spans="2:17" ht="15.75" thickBot="1">
-      <c r="G25" s="117"/>
+    <row r="25" spans="2:17" ht="15" thickBot="1">
+      <c r="G25" s="105"/>
       <c r="H25" s="85" t="s">
         <v>120</v>
       </c>
@@ -2811,16 +2848,16 @@
       <c r="Q25" s="16"/>
     </row>
     <row r="26" spans="2:17">
-      <c r="B26" s="95" t="s">
+      <c r="B26" s="119" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="95"/>
-      <c r="E26" s="95" t="s">
+      <c r="C26" s="119"/>
+      <c r="E26" s="119" t="s">
         <v>115</v>
       </c>
-      <c r="F26" s="95"/>
-      <c r="G26" s="114"/>
-      <c r="H26" s="114"/>
+      <c r="F26" s="119"/>
+      <c r="G26" s="102"/>
+      <c r="H26" s="102"/>
     </row>
     <row r="27" spans="2:17">
       <c r="B27" s="30">
@@ -2839,8 +2876,8 @@
         <f>IF(AND(E27&lt;=$F$22,$F$22&gt;0),$F$21,0)+IF(AND(E27&lt;=$F$24,$F$24&gt;0),$F$23,0)</f>
         <v>550</v>
       </c>
-      <c r="G27" s="115"/>
-      <c r="H27" s="115"/>
+      <c r="G27" s="103"/>
+      <c r="H27" s="103"/>
     </row>
     <row r="28" spans="2:17">
       <c r="B28" s="30">
@@ -2859,8 +2896,8 @@
         <f t="shared" ref="F28:F56" si="3">IF(AND(E28&lt;=$F$22,$F$22&gt;0),$F$21,0)+IF(AND(E28&lt;=$F$24,$F$24&gt;0),$F$23,0)</f>
         <v>550</v>
       </c>
-      <c r="G28" s="115"/>
-      <c r="H28" s="115"/>
+      <c r="G28" s="103"/>
+      <c r="H28" s="103"/>
     </row>
     <row r="29" spans="2:17">
       <c r="B29" s="30">
@@ -2879,8 +2916,8 @@
         <f t="shared" si="3"/>
         <v>550</v>
       </c>
-      <c r="G29" s="115"/>
-      <c r="H29" s="115"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="103"/>
     </row>
     <row r="30" spans="2:17">
       <c r="B30" s="30">
@@ -2899,8 +2936,8 @@
         <f t="shared" si="3"/>
         <v>550</v>
       </c>
-      <c r="G30" s="115"/>
-      <c r="H30" s="115"/>
+      <c r="G30" s="103"/>
+      <c r="H30" s="103"/>
     </row>
     <row r="31" spans="2:17">
       <c r="B31" s="30">
@@ -2919,8 +2956,8 @@
         <f t="shared" si="3"/>
         <v>550</v>
       </c>
-      <c r="G31" s="115"/>
-      <c r="H31" s="115"/>
+      <c r="G31" s="103"/>
+      <c r="H31" s="103"/>
     </row>
     <row r="32" spans="2:17">
       <c r="B32" s="30">
@@ -2939,8 +2976,8 @@
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
-      <c r="G32" s="115"/>
-      <c r="H32" s="115"/>
+      <c r="G32" s="103"/>
+      <c r="H32" s="103"/>
     </row>
     <row r="33" spans="2:8">
       <c r="B33" s="30">
@@ -2959,8 +2996,8 @@
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
-      <c r="G33" s="115"/>
-      <c r="H33" s="115"/>
+      <c r="G33" s="103"/>
+      <c r="H33" s="103"/>
     </row>
     <row r="34" spans="2:8">
       <c r="B34" s="30">
@@ -3424,6 +3461,9 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="E3:V3"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="H7:I7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="M7:M11"/>
@@ -3434,9 +3474,6 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E3:V3"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="H7:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3452,36 +3489,36 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="16" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.81640625" customWidth="1"/>
+    <col min="10" max="10" width="10.453125" customWidth="1"/>
+    <col min="11" max="11" width="10.7265625" customWidth="1"/>
+    <col min="12" max="12" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.1796875" customWidth="1"/>
+    <col min="15" max="15" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.54296875" style="16" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.7265625" style="21" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="8" customFormat="1" ht="60.75" thickBot="1">
+    <row r="1" spans="1:28" s="8" customFormat="1" ht="58.5" thickBot="1">
       <c r="A1" s="26" t="str">
         <f>'Data Input'!B2</f>
         <v>Year</v>
@@ -7529,18 +7566,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" hidden="1" customWidth="1"/>
-    <col min="6" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.28515625" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" style="16" customWidth="1"/>
+    <col min="5" max="5" width="13.1796875" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.26953125" customWidth="1"/>
+    <col min="14" max="14" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -7570,7 +7607,7 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="117"/>
+      <c r="A2" s="105"/>
       <c r="B2" s="90"/>
       <c r="C2" s="90"/>
       <c r="F2" s="5" t="s">
@@ -7600,10 +7637,10 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="123" t="s">
+      <c r="A3" s="111" t="s">
         <v>153</v>
       </c>
-      <c r="B3" s="124">
+      <c r="B3" s="112">
         <v>360</v>
       </c>
       <c r="C3" s="90"/>
@@ -7655,7 +7692,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="45">
+    <row r="5" spans="1:14" ht="43.5">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -20377,29 +20414,29 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="6.54296875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="14" customWidth="1"/>
     <col min="3" max="3" width="11" style="14" customWidth="1"/>
-    <col min="4" max="6" width="11.85546875" style="14" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" style="14" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" style="14" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" style="14" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="14" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="14" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" style="14" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" style="14" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" style="14" customWidth="1"/>
-    <col min="15" max="17" width="9.85546875" style="14" customWidth="1"/>
-    <col min="18" max="18" width="7.5703125" style="14" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" style="14" customWidth="1"/>
-    <col min="20" max="20" width="8.85546875" style="14" customWidth="1"/>
-    <col min="21" max="21" width="8.5703125" style="14" customWidth="1"/>
-    <col min="22" max="16384" width="8.85546875" style="14"/>
+    <col min="4" max="6" width="11.81640625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="10.54296875" style="14" customWidth="1"/>
+    <col min="8" max="8" width="9.7265625" style="14" customWidth="1"/>
+    <col min="9" max="9" width="7.81640625" style="14" customWidth="1"/>
+    <col min="10" max="10" width="10.7265625" style="14" customWidth="1"/>
+    <col min="11" max="11" width="11.453125" style="14" customWidth="1"/>
+    <col min="12" max="12" width="11.7265625" style="14" customWidth="1"/>
+    <col min="13" max="13" width="10.26953125" style="14" customWidth="1"/>
+    <col min="14" max="14" width="10.81640625" style="14" customWidth="1"/>
+    <col min="15" max="17" width="9.81640625" style="14" customWidth="1"/>
+    <col min="18" max="18" width="7.54296875" style="14" customWidth="1"/>
+    <col min="19" max="19" width="10.7265625" style="14" customWidth="1"/>
+    <col min="20" max="20" width="8.81640625" style="14" customWidth="1"/>
+    <col min="21" max="21" width="8.54296875" style="14" customWidth="1"/>
+    <col min="22" max="16384" width="8.81640625" style="14"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="13" customFormat="1" ht="45">
+    <row r="2" spans="1:21" s="13" customFormat="1" ht="43.5">
       <c r="A2" s="13" t="s">
         <v>30</v>
       </c>
@@ -23801,17 +23838,17 @@
       <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" customWidth="1"/>
+    <col min="1" max="1" width="7.54296875" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" customWidth="1"/>
+    <col min="4" max="4" width="11.7265625" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="52.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="16" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="52.54296875" customWidth="1"/>
+    <col min="7" max="7" width="14.81640625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="14.26953125" customWidth="1"/>
+    <col min="9" max="9" width="17.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12">
@@ -23824,11 +23861,11 @@
       <c r="K1" s="16"/>
       <c r="L1" s="16"/>
     </row>
-    <row r="2" spans="2:12" ht="30">
-      <c r="B2" s="106" t="s">
+    <row r="2" spans="2:12" ht="29">
+      <c r="B2" s="130" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="106"/>
+      <c r="C2" s="130"/>
       <c r="E2" s="34" t="s">
         <v>46</v>
       </c>
@@ -23850,7 +23887,7 @@
       <c r="K2" s="16"/>
       <c r="L2" s="41"/>
     </row>
-    <row r="3" spans="2:12" ht="30">
+    <row r="3" spans="2:12" ht="29">
       <c r="B3" s="30" t="s">
         <v>63</v>
       </c>
@@ -23878,7 +23915,7 @@
       <c r="K3" s="16"/>
       <c r="L3" s="16"/>
     </row>
-    <row r="4" spans="2:12" ht="30">
+    <row r="4" spans="2:12" ht="29">
       <c r="B4" s="30" t="s">
         <v>65</v>
       </c>
@@ -23906,7 +23943,7 @@
       <c r="K4" s="16"/>
       <c r="L4" s="16"/>
     </row>
-    <row r="5" spans="2:12" ht="30">
+    <row r="5" spans="2:12" ht="29">
       <c r="B5" s="47" t="s">
         <v>133</v>
       </c>
@@ -23934,7 +23971,7 @@
       <c r="K5" s="16"/>
       <c r="L5" s="16"/>
     </row>
-    <row r="6" spans="2:12" ht="30">
+    <row r="6" spans="2:12" ht="29">
       <c r="B6" s="30" t="s">
         <v>132</v>
       </c>
@@ -24045,11 +24082,11 @@
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
     </row>
-    <row r="11" spans="2:12" s="8" customFormat="1" ht="30">
-      <c r="B11" s="106" t="s">
+    <row r="11" spans="2:12" s="8" customFormat="1" ht="29">
+      <c r="B11" s="130" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="106"/>
+      <c r="C11" s="130"/>
       <c r="D11" s="36"/>
       <c r="E11" s="30" t="str">
         <f>E2</f>
@@ -24076,7 +24113,7 @@
         <v>Tax Rate</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="30">
+    <row r="12" spans="2:12" ht="29">
       <c r="B12" s="30" t="s">
         <v>63</v>
       </c>
@@ -24105,7 +24142,7 @@
       <c r="K12" s="16"/>
       <c r="L12" s="16"/>
     </row>
-    <row r="13" spans="2:12" ht="30">
+    <row r="13" spans="2:12" ht="29">
       <c r="B13" s="30" t="s">
         <v>65</v>
       </c>
@@ -24135,7 +24172,7 @@
       <c r="K13" s="16"/>
       <c r="L13" s="16"/>
     </row>
-    <row r="14" spans="2:12" ht="30">
+    <row r="14" spans="2:12" ht="29">
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
       <c r="D14" s="36"/>
@@ -24159,7 +24196,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="30">
+    <row r="15" spans="2:12" ht="29">
       <c r="B15" s="30" t="s">
         <v>21</v>
       </c>
@@ -24188,7 +24225,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="30">
+    <row r="16" spans="2:12" ht="29">
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
       <c r="D16" s="36"/>
@@ -24212,7 +24249,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="30">
+    <row r="17" spans="1:10" ht="29">
       <c r="D17" s="36"/>
       <c r="E17" s="30" t="s">
         <v>75</v>
@@ -24234,7 +24271,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="30">
+    <row r="18" spans="1:10" ht="29">
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
       <c r="D18" s="36"/>
@@ -24258,7 +24295,7 @@
         <v>0.10299999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="30">
+    <row r="19" spans="1:10" ht="29">
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
       <c r="D19" s="36"/>
@@ -24306,7 +24343,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="30">
+    <row r="21" spans="1:10" ht="29">
       <c r="D21" s="36"/>
       <c r="E21" s="30"/>
       <c r="F21" s="30" t="s">
@@ -24337,7 +24374,7 @@
       <c r="F23" s="36"/>
       <c r="G23" s="36"/>
     </row>
-    <row r="24" spans="1:10" ht="30">
+    <row r="24" spans="1:10" ht="29">
       <c r="A24" s="27" t="s">
         <v>20</v>
       </c>
@@ -24402,7 +24439,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="27">
-        <f t="shared" ref="A27:A65" si="4">A26+1</f>
+        <f t="shared" ref="A27:A64" si="4">A26+1</f>
         <v>2018</v>
       </c>
       <c r="B27" s="28">
@@ -25026,7 +25063,7 @@
         <v>227979.33520067536</v>
       </c>
       <c r="C55" s="42">
-        <f t="shared" ref="C55:C65" si="5">IF(AND(B55&gt;$I$3,B55&lt;$H$3),$G$3+(B55-$I$3)*$J$3,0)+IF(AND(B55&gt;$I$4,B55&lt;$H$4),$G$4+(B55-$I$4)*$J$4,0)+IF(AND(B55&gt;$I$5,B55&lt;$H$5),$G$5+(B55-$I$5)*$J$5,0)+IF(AND(B55&gt;$I$6,B55&lt;$H$6),$G$6+(B55-$I$6)*$J$6,0)+IF(AND(B55&gt;$I$7,B55&lt;$H$7),$G$7+(B55-$I$7)*$J$7,0)+IF(AND(B55&gt;$I$8,B55&lt;$H$8),$G$8+(B55-$I$8)*$J$8,0)+IF(AND(B55&gt;$I$9,B55&lt;$H$9),$G$9+(B55-$I$9)*$J$9,0)</f>
+        <f t="shared" ref="C55:C64" si="5">IF(AND(B55&gt;$I$3,B55&lt;$H$3),$G$3+(B55-$I$3)*$J$3,0)+IF(AND(B55&gt;$I$4,B55&lt;$H$4),$G$4+(B55-$I$4)*$J$4,0)+IF(AND(B55&gt;$I$5,B55&lt;$H$5),$G$5+(B55-$I$5)*$J$5,0)+IF(AND(B55&gt;$I$6,B55&lt;$H$6),$G$6+(B55-$I$6)*$J$6,0)+IF(AND(B55&gt;$I$7,B55&lt;$H$7),$G$7+(B55-$I$7)*$J$7,0)+IF(AND(B55&gt;$I$8,B55&lt;$H$8),$G$8+(B55-$I$8)*$J$8,0)+IF(AND(B55&gt;$I$9,B55&lt;$H$9),$G$9+(B55-$I$9)*$J$9,0)</f>
         <v>50819.433856189105</v>
       </c>
       <c r="D55" s="28">
@@ -25034,7 +25071,7 @@
         <v>254165.80080220336</v>
       </c>
       <c r="E55" s="28">
-        <f t="shared" ref="E55:E65" si="6">IF(AND(D55&gt;$I$12,D55&lt;$H$12),$G$12+(D55-$I$12)*$J$12,0)+IF(AND(D55&gt;$I$13,D55&lt;$H$13),$G$13+(D55-$I$13)*$J$13,0)+IF(AND(D55&gt;$I$14,D55&lt;$H$14),$G$14+(D55-$I$14)*$J$14,0)+IF(AND(D55&gt;$I$14,D55&lt;$H$14),$G$14+(D55-$I$14)*$J$14,0)+IF(AND(D55&gt;$I$15,D55&lt;$H$15),$G$15+(D55-$I$15)*$J$15,0)+IF(AND(D55&gt;$I$16,D55&lt;$H$16),$G$16+(D55-$I$16)*$J$16,0)+IF(AND(D55&gt;$I$17,D55&lt;$H$17),$G$17+(D55-$I$17)*$J$17,0)+IF(AND(D55&gt;$I$18,D55&lt;$H$18),$G$18+(D55-$I$18)*$J$18,0)+IF(AND(D55&gt;$I$19,D55&lt;$H$19),$G$19+(D55-$I$19)*$J$19,0)+IF(AND(D55&gt;$I$20,D55&lt;$H$20),$G$20+(D55-$I$20)*$J$20,0)+IF(AND(D55&gt;$I$21,D55&lt;$H$21),$G$21+(D55-$I$21)*$J$21,0)</f>
+        <f t="shared" ref="E55:E64" si="6">IF(AND(D55&gt;$I$12,D55&lt;$H$12),$G$12+(D55-$I$12)*$J$12,0)+IF(AND(D55&gt;$I$13,D55&lt;$H$13),$G$13+(D55-$I$13)*$J$13,0)+IF(AND(D55&gt;$I$14,D55&lt;$H$14),$G$14+(D55-$I$14)*$J$14,0)+IF(AND(D55&gt;$I$14,D55&lt;$H$14),$G$14+(D55-$I$14)*$J$14,0)+IF(AND(D55&gt;$I$15,D55&lt;$H$15),$G$15+(D55-$I$15)*$J$15,0)+IF(AND(D55&gt;$I$16,D55&lt;$H$16),$G$16+(D55-$I$16)*$J$16,0)+IF(AND(D55&gt;$I$17,D55&lt;$H$17),$G$17+(D55-$I$17)*$J$17,0)+IF(AND(D55&gt;$I$18,D55&lt;$H$18),$G$18+(D55-$I$18)*$J$18,0)+IF(AND(D55&gt;$I$19,D55&lt;$H$19),$G$19+(D55-$I$19)*$J$19,0)+IF(AND(D55&gt;$I$20,D55&lt;$H$20),$G$20+(D55-$I$20)*$J$20,0)+IF(AND(D55&gt;$I$21,D55&lt;$H$21),$G$21+(D55-$I$21)*$J$21,0)</f>
         <v>18590.439474604915</v>
       </c>
     </row>
@@ -25215,33 +25252,33 @@
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="107">
+      <c r="A64" s="95">
         <f t="shared" si="4"/>
         <v>2055</v>
       </c>
-      <c r="B64" s="108">
+      <c r="B64" s="96">
         <f>'Main Info'!G41</f>
         <v>328203.95411834988</v>
       </c>
-      <c r="C64" s="109">
+      <c r="C64" s="97">
         <f t="shared" si="5"/>
         <v>83719.974859055466</v>
       </c>
-      <c r="D64" s="108">
+      <c r="D64" s="96">
         <f>'Main Info'!F41</f>
         <v>364003.27907205059</v>
       </c>
-      <c r="E64" s="108">
+      <c r="E64" s="96">
         <f t="shared" si="6"/>
         <v>28805.324953700707</v>
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="110"/>
-      <c r="B65" s="111"/>
-      <c r="C65" s="112"/>
-      <c r="D65" s="111"/>
-      <c r="E65" s="111"/>
+      <c r="A65" s="98"/>
+      <c r="B65" s="99"/>
+      <c r="C65" s="100"/>
+      <c r="D65" s="99"/>
+      <c r="E65" s="99"/>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="16"/>
@@ -25269,9 +25306,9 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="3" max="3" width="91.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="91.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4">
@@ -25447,21 +25484,21 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="16" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="16"/>
-    <col min="5" max="5" width="13.140625" style="16" hidden="1" customWidth="1"/>
-    <col min="6" max="7" width="12.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="18.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.28515625" style="16" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="16"/>
-    <col min="14" max="14" width="11.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="1" width="22.453125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" style="16"/>
+    <col min="5" max="5" width="13.1796875" style="16" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="12.7265625" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="18.81640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.1796875" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.26953125" style="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.26953125" style="16" customWidth="1"/>
+    <col min="13" max="13" width="9.1796875" style="16"/>
+    <col min="14" max="14" width="11.1796875" style="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.1796875" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -25512,10 +25549,10 @@
       <c r="L2" s="17"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="123" t="s">
+      <c r="A3" s="111" t="s">
         <v>153</v>
       </c>
-      <c r="B3" s="124">
+      <c r="B3" s="112">
         <v>360</v>
       </c>
       <c r="C3" s="90"/>
@@ -25567,7 +25604,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="30">
+    <row r="5" spans="1:14" ht="29">
       <c r="A5" s="16" t="s">
         <v>30</v>
       </c>
@@ -37036,7 +37073,7 @@
         <v>0</v>
       </c>
       <c r="G329" s="17">
-        <f t="shared" ref="G329:G366" si="38">+F329-H329</f>
+        <f t="shared" ref="G329:G364" si="38">+F329-H329</f>
         <v>0</v>
       </c>
       <c r="H329" s="17">
@@ -38260,21 +38297,21 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="16" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="16"/>
-    <col min="5" max="5" width="13.140625" style="16" hidden="1" customWidth="1"/>
-    <col min="6" max="7" width="12.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="18.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.28515625" style="16" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="16"/>
-    <col min="14" max="14" width="11.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="1" width="22.453125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" style="16"/>
+    <col min="5" max="5" width="13.1796875" style="16" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="12.7265625" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="18.81640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.1796875" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.26953125" style="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.26953125" style="16" customWidth="1"/>
+    <col min="13" max="13" width="9.1796875" style="16"/>
+    <col min="14" max="14" width="11.1796875" style="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.1796875" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -38325,10 +38362,10 @@
       <c r="L2" s="17"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="123" t="s">
+      <c r="A3" s="111" t="s">
         <v>153</v>
       </c>
-      <c r="B3" s="124">
+      <c r="B3" s="112">
         <v>360</v>
       </c>
       <c r="C3" s="90"/>
@@ -38380,7 +38417,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="30">
+    <row r="5" spans="1:14" ht="29">
       <c r="A5" s="16" t="s">
         <v>30</v>
       </c>
@@ -49849,7 +49886,7 @@
         <v>0</v>
       </c>
       <c r="G329" s="17">
-        <f t="shared" ref="G329:G366" si="38">+F329-H329</f>
+        <f t="shared" ref="G329:G364" si="38">+F329-H329</f>
         <v>0</v>
       </c>
       <c r="H329" s="17">
